--- a/biology/Histoire de la zoologie et de la botanique/Charles_Eugène_Bertrand/Charles_Eugène_Bertrand.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Eugène_Bertrand/Charles_Eugène_Bertrand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_Eug%C3%A8ne_Bertrand</t>
+          <t>Charles_Eugène_Bertrand</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Eugène Bertrand est un paléobotaniste français, né le 2 janvier 1851 à Paris et mort le 18 août 1917[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Eugène Bertrand est un paléobotaniste français, né le 2 janvier 1851 à Paris et mort le 18 août 1917.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_Eug%C3%A8ne_Bertrand</t>
+          <t>Charles_Eugène_Bertrand</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il fait ses études auprès du botaniste Joseph Decaisne  et de l’agronome Pierre-Paul Dehérain, tous deux du Muséum national d'histoire naturelle. Il devient docteur ès sciences à Paris en 1874 avec une thèse intitulée Anatomie comparée des tiges et des feuilles chez les gnétacies et chez les conifères. Il obtient un poste de professeur de botanique à l’Université de Lille en 1878. Il dirige les Archives botaniques du nord de la France de 1881 à 1887.
 Bertrand reçoit le prix Kuhlmann de la Société des sciences, de l'agriculture et des arts de Lille en 1883 puis le prix Bordin en 1875. Bertrand s’intéresse particulièrement à la formation des charbons. Il est notamment l’auteur de :
@@ -543,7 +557,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles_Eug%C3%A8ne_Bertrand</t>
+          <t>Charles_Eugène_Bertrand</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,7 +575,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.
  Notice sur les travaux scientifiques de Charles-Eugène Bertrand (1887)</t>
